--- a/biology/Médecine/Markwart_Michler/Markwart_Michler.xlsx
+++ b/biology/Médecine/Markwart_Michler/Markwart_Michler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Markwart Waldemar Michler (né le 30 avril 1923 à Breslau et mort le 16 avril 2001 à Bad Brückenau) est un historien médical allemand qui a travaillé à l'Université Justus-Liebig de Gießen de 1965 à 1973.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Markwart Michler est le fils du philologue classique Waldemar Michler et de Leonie Frieda née Oleck. Son père est professeur au lycée Sainte-Élisabeth de Breslau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Markwart Michler est le fils du philologue classique Waldemar Michler et de Leonie Frieda née Oleck. Son père est professeur au lycée Sainte-Élisabeth de Breslau.
 Markwart Michler étudie la médecine à l'Université de Breslau à partir de 1942. En 1944, il est appelé au service du front pendant la Seconde Guerre mondiale et doit interrompre ses études. Après son retour de captivité, il poursuit ses études de 1946 à 1949 à l'Université Humboldt de Berlin. Il travaille ensuite comme médecin assistant à l'hôpital municipal de Berlin-Neukölln (1950-1951), à l'hôpital Augusta-Victoria (de) de Berlin-Schöneberg (1951-1956) et à l'hôpital évangélique de la forêt (de) de Berlin-Spandau. Pendant ce temps, il se qualifie dans les domaines de la chirurgie (1957) et de l'orthopédie (1958) et termine sa thèse, où il reçoit à l'Université libre de Berlin le 10 juin 1958 son doctorat.
 Après avoir obtenu son doctorat et sa qualification de spécialiste, Michler est physiothérapeute principal au département d'orthopédie de l'hôpital de la forêt de 1958 à 1961. Son intérêt pour l'histoire de la médecine le pousse finalement à abandonner le travail clinique et en 1961 à accepter un poste d'assistant à l'Université de Bonn. De là, il déménage en 1964 en tant que chargé de cours à l'Institut d'histoire de la médecine de l'Université de Hambourg, où il a obtenu son habilitation en 1965.
 En 1965, il accepte un appel à l'Université Justus-Liebig de Gießen, où il prend en charge la nouvelle chaire d'histoire médicale. Avec son assistant de l'époque, Jost Benedum (de), il dirige l'Institut d'histoire de la médecine et écrit Einführung in die medizinische Fachsprache connue sous le nom de "Michler-Benedum", qui est réimprimée à plusieurs reprises.
@@ -547,7 +561,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Die Leibesübungen in der griechischen Heilkunde. Eine Untersuchung über ihren Einfluß auf die Entwicklung der wissenschaftlichen Medizin und deren Therapie in geschichtlicher Darstellung von den Anfängen bis zur Alexandrinerzeit. Berlin-Dahlem 1958 (Medizinische Dissertation, Freie Universität Berlin).
 Das Problem der westgriechischen Heilkunde. Eine Überprüfung der bisherigen Hypothesen. In: Sudhoffs Archiv für Geschichte der Medizin und der Naturwissenschaften. Band 46, 1962, S. 137–152.
